--- a/vbai-fhir/CodeSystem-marital-status.xlsx
+++ b/vbai-fhir/CodeSystem-marital-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Property</t>
   </si>
@@ -114,7 +114,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>7</t>
+    <t>10</t>
   </si>
   <si>
     <t>Level</t>
@@ -141,7 +141,7 @@
     <t>RL</t>
   </si>
   <si>
-    <t>In a relationship, not married, living with partner</t>
+    <t>In a relationship, not married, living with partner (Domestic Partner)</t>
   </si>
   <si>
     <t>RNL</t>
@@ -159,19 +159,37 @@
     <t>SD</t>
   </si>
   <si>
-    <t>Separated</t>
+    <t>Legally Separated</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
-    <t>Single</t>
+    <t>Never Married</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
     <t>Widowed</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Annuled</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Interlocutory</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Polygamous</t>
   </si>
 </sst>
 </file>
@@ -474,7 +492,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -578,6 +596,42 @@
       </c>
       <c r="D8" s="2"/>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/vbai-fhir/CodeSystem-marital-status.xlsx
+++ b/vbai-fhir/CodeSystem-marital-status.xlsx
@@ -311,10 +311,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-marital-status.xlsx
+++ b/vbai-fhir/CodeSystem-marital-status.xlsx
@@ -311,10 +311,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-marital-status.xlsx
+++ b/vbai-fhir/CodeSystem-marital-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -311,10 +311,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-marital-status.xlsx
+++ b/vbai-fhir/CodeSystem-marital-status.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Questionnaire codes for marital status</t>
+    <t>Marital Status Classification Codes</t>
   </si>
   <si>
     <t>Status</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The codes required for marital status</t>
+    <t>A comprehensive set of codes representing different marital statuses for use in questionnaires.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/vbai-fhir/CodeSystem-marital-status.xlsx
+++ b/vbai-fhir/CodeSystem-marital-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/vbai-fhir/CodeSystem-marital-status.xlsx
+++ b/vbai-fhir/CodeSystem-marital-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
